--- a/20231108/利用回数.xlsx
+++ b/20231108/利用回数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yajim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02468A45-153E-4467-9CD8-05B5B4F56EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B174F0-D975-4714-A68E-092D1025085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="1176" windowWidth="15360" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4944" yWindow="1176" windowWidth="17856" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>447393</v>
+        <v>105840</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -415,516 +415,516 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>844992</v>
+        <v>110258</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>988571</v>
+        <v>115284</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>143241</v>
+        <v>115508</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>681128</v>
+        <v>143241</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>684202</v>
+        <v>160131</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>115508</v>
+        <v>168171</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>509574</v>
+        <v>173684</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>597543</v>
+        <v>179405</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>513276</v>
+        <v>201346</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>638343</v>
+        <v>203227</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>503402</v>
+        <v>208453</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>229710</v>
+        <v>220193</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>271889</v>
+        <v>221126</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>703629</v>
+        <v>229710</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>384321</v>
+        <v>256905</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>497409</v>
+        <v>267709</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>395363</v>
+        <v>271889</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>703801</v>
+        <v>277556</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>491006</v>
+        <v>281648</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>685252</v>
+        <v>282650</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>830563</v>
+        <v>299496</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>347891</v>
+        <v>307590</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>933251</v>
+        <v>327295</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>173684</v>
+        <v>342375</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>105840</v>
+        <v>347891</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>342375</v>
+        <v>368264</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>683884</v>
+        <v>368435</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>208453</v>
+        <v>383421</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>383421</v>
+        <v>384321</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>851881</v>
+        <v>395363</v>
       </c>
       <c r="B32">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>267709</v>
+        <v>416304</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>576420</v>
+        <v>428904</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>115284</v>
+        <v>447393</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>179405</v>
+        <v>453847</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>801901</v>
+        <v>467836</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>970577</v>
+        <v>475695</v>
       </c>
       <c r="B38">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>918916</v>
+        <v>478796</v>
       </c>
       <c r="B39">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>368264</v>
+        <v>491006</v>
       </c>
       <c r="B40">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>944052</v>
+        <v>496962</v>
       </c>
       <c r="B41">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>453847</v>
+        <v>497409</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>467836</v>
+        <v>503402</v>
       </c>
       <c r="B43">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>645137</v>
+        <v>509574</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>653125</v>
+        <v>513215</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>496962</v>
+        <v>513276</v>
       </c>
       <c r="B46">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>691158</v>
+        <v>520025</v>
       </c>
       <c r="B47">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>110258</v>
+        <v>552798</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>281648</v>
+        <v>557015</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -932,98 +932,98 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>716082</v>
+        <v>557478</v>
       </c>
       <c r="B50">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>927950</v>
+        <v>576420</v>
       </c>
       <c r="B51">
         <v>45</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>874284</v>
+        <v>597543</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>905774</v>
+        <v>614889</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>520025</v>
+        <v>620717</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>475695</v>
+        <v>638343</v>
       </c>
       <c r="B55">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>956958</v>
+        <v>642737</v>
       </c>
       <c r="B56">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>256905</v>
+        <v>643713</v>
       </c>
       <c r="B57">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>552798</v>
+        <v>645137</v>
       </c>
       <c r="B58">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -1031,21 +1031,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>221126</v>
+        <v>653125</v>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>557478</v>
+        <v>656747</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>14</v>
@@ -1053,208 +1053,208 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>282650</v>
+        <v>679625</v>
       </c>
       <c r="B61">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>620717</v>
+        <v>680669</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>327295</v>
+        <v>681128</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>975150</v>
+        <v>683884</v>
       </c>
       <c r="B64">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>160131</v>
+        <v>684202</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>428904</v>
+        <v>685252</v>
       </c>
       <c r="B66">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>368435</v>
+        <v>691158</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>680669</v>
+        <v>703629</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>203227</v>
+        <v>703801</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>656747</v>
+        <v>716082</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>797673</v>
+        <v>718858</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>718858</v>
+        <v>739551</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>557015</v>
+        <v>796896</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>307590</v>
+        <v>797673</v>
       </c>
       <c r="B74">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>168171</v>
+        <v>801901</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>642737</v>
+        <v>810734</v>
       </c>
       <c r="B76">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>739551</v>
+        <v>830563</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>679625</v>
+        <v>844992</v>
       </c>
       <c r="B78">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>643713</v>
+        <v>851881</v>
       </c>
       <c r="B79">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C79">
         <v>14</v>
@@ -1262,87 +1262,87 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>201346</v>
+        <v>853121</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>220193</v>
+        <v>874284</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>478796</v>
+        <v>882567</v>
       </c>
       <c r="B82">
         <v>28</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>513215</v>
+        <v>905774</v>
       </c>
       <c r="B83">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>277556</v>
+        <v>918916</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>614889</v>
+        <v>927950</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>416304</v>
+        <v>933251</v>
       </c>
       <c r="B86">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>299496</v>
+        <v>944052</v>
       </c>
       <c r="B87">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -1350,29 +1350,29 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>853121</v>
+        <v>956958</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>810734</v>
+        <v>970577</v>
       </c>
       <c r="B89">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>796896</v>
+        <v>975150</v>
       </c>
       <c r="B90">
         <v>27</v>
@@ -1383,16 +1383,19 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>882567</v>
+        <v>988571</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+    <sortCondition ref="A2:A91"/>
+  </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
